--- a/outputs-HGR-r202/g__UMGS1537.xlsx
+++ b/outputs-HGR-r202/g__UMGS1537.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>s__UMGS1537 sp900543695</t>
+          <t>s__UMGS1537 sp900543695(reject)</t>
         </is>
       </c>
     </row>
